--- a/Issues Assigned - Spreadsheet.xlsx
+++ b/Issues Assigned - Spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abinash 28193\Issues &amp; CRs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abinash 28193\Issues &amp; CRs\Dumbshit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Incident No</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Resolution Day</t>
-  </si>
-  <si>
-    <t>Remarks</t>
   </si>
   <si>
     <t>User</t>
@@ -118,25 +115,12 @@
 B8237155.1006</t>
   </si>
   <si>
-    <t>Development feasibility tested.
-Have mailed Blanca for COE approval.</t>
-  </si>
-  <si>
-    <t>No work so far.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue explained. Not satisfied. </t>
-  </si>
-  <si>
     <t>POE_M</t>
   </si>
   <si>
     <t>Developing a new screen with multiple Start and Confirm.</t>
   </si>
   <si>
-    <t>Handed over to Prutvij.</t>
-  </si>
-  <si>
     <t>Assigned Date</t>
   </si>
   <si>
@@ -164,15 +148,16 @@
     <t>To Do</t>
   </si>
   <si>
-    <t>1. Ask for mail with Sneha.</t>
-  </si>
-  <si>
-    <t>1. Check SOs which are given exist or not in system.
-2. Check whether not present SOs are uploaded or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Follow up with Subhash
-</t>
+    <t>IN00498644</t>
+  </si>
+  <si>
+    <t>The MES SQL report is quite strange, sometimes it took more than 5 minutes to execute it, normally happen in the morning for nearly everyday the first time to run the report. and after if I run it again and again, it is so fast and can list the result in 30 seconds.</t>
+  </si>
+  <si>
+    <t>Chao, Leon Li</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
 </sst>
 </file>
@@ -182,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +178,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,20 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
@@ -242,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,28 +216,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -356,90 +298,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
-    <cellStyle name="60% - Accent2" xfId="5" builtinId="36"/>
-    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -523,8 +441,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M1:M9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="M1:M9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="M1:M10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="M1:M10">
     <filterColumn colId="0">
       <filters>
         <filter val="Open"/>
@@ -801,18 +719,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="31" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31" style="15" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
@@ -831,26 +749,26 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>40</v>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -859,23 +777,21 @@
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="5">
         <v>43556</v>
       </c>
@@ -883,38 +799,34 @@
         <v>43556</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G8" ca="1" si="0" xml:space="preserve"> TODAY() - E2</f>
-        <v>21</v>
+        <f t="shared" ref="G2:G10" ca="1" si="0" xml:space="preserve"> TODAY() - E2</f>
+        <v>24</v>
       </c>
       <c r="H2" s="5">
         <v>43566</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:I8" ca="1" si="1" xml:space="preserve"> H2 - TODAY()</f>
-        <v>-11</v>
+        <f t="shared" ref="I2:I10" ca="1" si="1" xml:space="preserve"> H2 - TODAY()</f>
+        <v>-14</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
       <c r="L2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="5">
         <v>43566</v>
       </c>
@@ -923,37 +835,33 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5">
         <v>43576</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="2"/>
       <c r="L3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="5">
         <v>43558</v>
       </c>
@@ -962,37 +870,33 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5">
         <v>43579</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>42</v>
-      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="5">
         <v>43560</v>
       </c>
@@ -1001,35 +905,33 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5" s="5">
         <v>43581</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="23"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="5">
         <v>43560</v>
       </c>
@@ -1038,35 +940,33 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5">
         <v>43581</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="5">
         <v>43565</v>
       </c>
@@ -1075,35 +975,33 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5">
         <v>43586</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="2"/>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5">
         <v>43566</v>
       </c>
@@ -1112,47 +1010,80 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
         <v>43587</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="2"/>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
         <v>43573</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="6"/>
       <c r="K9" s="2"/>
       <c r="L9" s="7"/>
       <c r="M9" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="5">
+        <v>43580</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43580</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>43601</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Assigned - Spreadsheet.xlsx
+++ b/Issues Assigned - Spreadsheet.xlsx
@@ -722,7 +722,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
